--- a/Макеты/ВА_ИмпортExcel_Меркурий.xlsx
+++ b/Макеты/ВА_ИмпортExcel_Меркурий.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH31-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F2CB64-67E2-42F9-ABDB-388A18FFAC0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E30DD-1E45-4E57-B21A-B07B60CC94D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
-    <t>ВА - ИмпортExcel(многопериодный)</t>
-  </si>
-  <si>
     <t>Контрагенты_Наименование</t>
   </si>
   <si>
@@ -137,12 +134,15 @@
   </si>
   <si>
     <t>RUB</t>
+  </si>
+  <si>
+    <t>ВА - ИмпортExcel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -676,7 +676,7 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -706,36 +706,36 @@
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="14"/>
     </row>
@@ -749,27 +749,27 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -795,7 +795,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -896,7 +896,7 @@
     <row r="12" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -926,7 +926,7 @@
     <row r="13" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -974,10 +974,10 @@
     <row r="15" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1006,10 +1006,10 @@
     <row r="16" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1074,22 +1074,22 @@
     <row r="19" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="6">
@@ -1114,22 +1114,22 @@
     <row r="20" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="6">
@@ -1154,22 +1154,22 @@
     <row r="21" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="6">
@@ -1194,22 +1194,22 @@
     <row r="22" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22"/>
       <c r="I22" s="6">
@@ -1234,22 +1234,22 @@
     <row r="23" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="6">
@@ -1273,7 +1273,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="25" spans="1:14" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1310,25 +1310,25 @@
     <row r="26" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="6">
         <v>2</v>
@@ -1352,25 +1352,25 @@
     <row r="27" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -1394,25 +1394,25 @@
     <row r="28" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="G28" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="6">
         <v>2</v>
@@ -1436,25 +1436,25 @@
     <row r="29" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
@@ -1478,25 +1478,25 @@
     <row r="30" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
@@ -1519,17 +1519,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
